--- a/default/0_constants/sets.xlsx
+++ b/default/0_constants/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\tests_integration\constants_generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\default\0_constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB86839-CBE1-44CE-AD86-764D17AAAE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FBF23E-F169-43F0-917E-309FA493A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5350" yWindow="3150" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_CASE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>c_Name</t>
   </si>
@@ -30,6 +30,9 @@
     <t>f_Name</t>
   </si>
   <si>
+    <t>f_Category</t>
+  </si>
+  <si>
     <t>f_Aggregation</t>
   </si>
   <si>
@@ -42,7 +45,13 @@
     <t>oil products</t>
   </si>
   <si>
+    <t>Yearly dispatched</t>
+  </si>
+  <si>
     <t>electricity, gas</t>
+  </si>
+  <si>
+    <t>Hourly dispatched</t>
   </si>
   <si>
     <t>electricity</t>
@@ -423,7 +432,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,7 +444,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -445,17 +454,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -463,77 +553,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
